--- a/config_10.19/act_ty_phb_config.xlsx
+++ b/config_10.19/act_ty_phb_config.xlsx
@@ -126,10 +126,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_grade</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>60000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -367,6 +363,10 @@
   </si>
   <si>
     <t>欢乐券达到6万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +849,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -926,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>33</v>
@@ -943,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -955,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="18">
         <v>1634601600</v>
@@ -973,10 +973,10 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="1">
         <v>100</v>
@@ -1057,10 +1057,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>22</v>
@@ -1168,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1183,7 +1183,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1191,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
@@ -1206,7 +1206,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1214,13 +1214,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -1229,7 +1229,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1237,13 +1237,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1252,7 +1252,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1260,13 +1260,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
@@ -1275,7 +1275,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1283,13 +1283,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
@@ -1298,7 +1298,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1306,13 +1306,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>31</v>
@@ -1321,7 +1321,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_10.19/act_ty_phb_config.xlsx
+++ b/config_10.19/act_ty_phb_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>line|</t>
   </si>
@@ -326,47 +326,55 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>act_031_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到200万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到120万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到60万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到30万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到20万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到12万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券达到6万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_drop_act_nor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_031_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ymshf_017_hldr_rank</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到200万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到120万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到60万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到30万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到20万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到12万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐券达到6万</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -848,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>44</v>
@@ -955,7 +963,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="18">
         <v>1634601600</v>
@@ -973,10 +981,10 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P2" s="1">
         <v>100</v>
@@ -985,23 +993,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1634601600</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1635177599</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
@@ -1183,7 +1226,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1206,7 +1249,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1229,7 +1272,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1252,7 +1295,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1275,7 +1318,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1298,7 +1341,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1321,7 +1364,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
